--- a/Requests/Production Requests.xlsx
+++ b/Requests/Production Requests.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidenprice/Dropbox/Training/MSc Geospatial Science/Research Project/Written Report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidenprice/Dropbox/Training/MSc Geospatial Science/Research Project/Written Report/Requests/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19660" yWindow="460" windowWidth="18740" windowHeight="11760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="37480" windowHeight="23540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GET" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="143">
   <si>
     <t>Test Name</t>
   </si>
@@ -542,48 +542,6 @@
   </si>
   <si>
     <t>[Link](https://services.slip.wa.gov.au/public/rest/services/Landgate_Public_Services/Medium_Scale_Topo_Public_Services/MapServer/export?bbox=115%2C-35.5%2C127%2C-13.5&amp;bboxSR=4283&amp;layers=show%3A0%2C1%2C2%2C3&amp;layerDefs=&amp;size=50%2C50&amp;imageSR=4283&amp;format=png&amp;transparent=true&amp;dpi=&amp;time=&amp;layerTimeOptions=&amp;dynamicLayers=&amp;gdbVersion=&amp;mapScale=&amp;f=image)</t>
-  </si>
-  <si>
-    <t>[Link](https://mapsengine.google.com/09372590152434720789-03311849775732631692-4/wms/?service=wms&amp;version=1.1.1&amp;request=GetMap&amp;srs=EPSG%3A4326&amp;format=image%2Fpng&amp;height=500&amp;width=500&amp;bbox=115.894855%2C-32.007438%2C115.895456%2C-32.006877&amp;layers=09372590152434720789-02344374277596842979-4&amp;styles=&amp;key=)</t>
-  </si>
-  <si>
-    <t>[Link](https://mapsengine.google.com/09372590152434720789-03311849775732631692-4/wmts/?service=wmts&amp;version=1.0.0&amp;request=GetTile&amp;exceptions=XML&amp;layer=09372590152434720789-02344374277596842979-4&amp;style=default&amp;format=image%2Fpng&amp;tilematrixset=EPSG%3A900913&amp;tilematrix=EPSG%3A900913%3A19&amp;tilerow=311390&amp;tilecol=430928&amp;key=)</t>
-  </si>
-  <si>
-    <t>[Link](https://mapsengine.google.com/09372590152434720789-03311849775732631692-4/wmts/?service=wmts&amp;version=1.0.0&amp;request=GetTile&amp;exceptions=XML&amp;layer=09372590152434720789-02344374277596842979-4&amp;style=default&amp;format=image%2Fpng&amp;tilematrixset=EPSG%3A900913&amp;tilematrix=EPSG%3A900913%3A19&amp;tilerow=311389&amp;tilecol=430929&amp;key=)</t>
-  </si>
-  <si>
-    <t>[Link](https://mapsengine.google.com/09372590152434720789-03311849775732631692-4/wmts/?service=wmts&amp;version=1.0.0&amp;request=GetTile&amp;exceptions=XML&amp;layer=09372590152434720789-02344374277596842979-4&amp;style=default&amp;format=image%2Fpng&amp;tilematrixset=EPSG%3A900913&amp;tilematrix=EPSG%3A900913%3A19&amp;tilerow=311388&amp;tilecol=430930&amp;key=)</t>
-  </si>
-  <si>
-    <t>[Link](https://mapsengine.google.com/09372590152434720789-03311849775732631692-4/wmts/?service=wmts&amp;version=1.0.0&amp;request=GetTile&amp;exceptions=XML&amp;layer=09372590152434720789-02344374277596842979-4&amp;style=default&amp;format=image%2Fpng&amp;tilematrixset=EPSG%3A900913&amp;tilematrix=EPSG%3A900913%3A19&amp;tilerow=311388&amp;tilecol=430931&amp;key=)</t>
-  </si>
-  <si>
-    <t>[Link](https://mapsengine.google.com/09372590152434720789-03311849775732631692-4/wms/?service=wms&amp;version=1.1.1&amp;request=GetMap&amp;srs=EPSG%3A4326&amp;format=image%2Fpng&amp;height=50&amp;width=50&amp;bbox=115.894855%2C-32.007438%2C115.895456%2C-32.006877&amp;layers=09372590152434720789-02344374277596842979-4&amp;styles=&amp;key=)</t>
-  </si>
-  <si>
-    <t>[Link](https://mapsengine.google.com/09372590152434720789-03311849775732631692-4/wms/?service=wms&amp;version=1.3.0&amp;request=GetCapabilities&amp;exceptions=XML&amp;key=)</t>
-  </si>
-  <si>
-    <t>[Link](https://mapsengine.google.com/09372590152434720789-03311849775732631692-4/wmts/?service=wmts&amp;version=1.0.0&amp;request=GetCapabilities&amp;exceptions=XML&amp;key=)</t>
-  </si>
-  <si>
-    <t>[Link](https://www.googleapis.com/mapsengine/v1/tables/09372590152434720789-08620406515972909896/features?version=published&amp;where=LOCATION%20CONTAINS%20%27Curtin%27%20AND%20SUBURB%20CONTAINS%20%27BENTLEY%27%20AND%20STATUS%20CONTAINS%20%27Active%27&amp;key=)</t>
-  </si>
-  <si>
-    <t>[Link](https://www.googleapis.com/mapsengine/v1/tables/09372590152434720789-08620406515972909896/features?version=published&amp;maxResults=500&amp;key=)</t>
-  </si>
-  <si>
-    <t>[Link](https://www.googleapis.com/mapsengine/v1/tables/09372590152434720789-08620406515972909896/features?version=published&amp;select=STOPID%2CSTOPNAME%2CSTOPTYPE%2CSTATUS%2CLOCATION%2CSUBURB%2Cgeometry%2CST_Distance%28geometry%2CST_POINT%28115.895095%2C-32.007143%29%29%20as%20distance&amp;orderBy=distance&amp;limit=1&amp;where=STATUS%20CONTAINS%20%27Active%27&amp;key=)</t>
-  </si>
-  <si>
-    <t>[Link](https://www.googleapis.com/mapsengine/v1/tables/09372590152434720789-08620406515972909896/features/1847?version=published&amp;maxResults=25&amp;key=)</t>
-  </si>
-  <si>
-    <t>[Link](https://www.googleapis.com/mapsengine/v1/tables/09372590152434720789-08620406515972909896/features?version=published&amp;select=STOPID%2CSTOPNAME%2CSTOPTYPE%2CSTATUS%2CLOCATION%2CSUBURB%2Cgeometry&amp;orderBy=STOPNAME&amp;where=STATUS%20CONTAINS%20%27Active%27&amp;intersects=POLYGON%28%28115.8861773031899%20-31.99754322345886%2C%20115.8880417106566%20-32.00575228301201%2C%20115.8860718954193%20-32.01293450013328%2C%20115.894379415096%20-32.01350664629256%2C%20115.8939605952021%20-32.0119340941473%2C%20115.8934324720389%20-32.01154462279226%2C%20115.8937844220442%20-32.01021176821627%2C%20115.897005592728%20-32.0078328487639%2C%20115.8998850276332%20-32.00893175550439%2C%20115.9009673001542%20-32.00825477399166%2C%20115.8971881688856%20-32.00516242141832%2C%20115.8963344811994%20-32.0038082005204%2C%20115.8954071313707%20-32.0013269008619%2C%20115.8934248136717%20-31.99897245405646%2C%20115.890330338636%20-31.99790449476763%2C%20115.8861773031899%20-31.99754322345886%29%29&amp;limit=75&amp;key=)</t>
-  </si>
-  <si>
-    <t>[Link](https://www.googleapis.com/mapsengine/v1/tables/09372590152434720789-08620406515972909896/features?version=published&amp;maxResults=25&amp;select=STOPID%2CSTOPNAME%2CSTOPTYPE%2Cgeometry&amp;key=)</t>
   </si>
   <si>
     <t>[Link](https://imagery.slip.wa.gov.au/service?service=WMTS&amp;version=1.0.0&amp;request=GetTile&amp;layer=Locate&amp;style=default&amp;format=image%2Fpng&amp;tilematrixset=wa&amp;tilematrix=19&amp;tilerow=311390&amp;tilecol=430928)</t>
@@ -685,7 +643,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -713,6 +671,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
@@ -730,7 +694,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="28">
+  <cellStyles count="34">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -755,9 +719,15 @@
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1035,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1151,9 +1121,6 @@
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1162,9 +1129,6 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1173,9 +1137,6 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1184,9 +1145,6 @@
         <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1195,9 +1153,6 @@
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1206,9 +1161,6 @@
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1217,9 +1169,6 @@
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1228,9 +1177,6 @@
         <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1239,9 +1185,6 @@
         <v>24</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1250,9 +1193,6 @@
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1261,9 +1201,6 @@
         <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1272,9 +1209,6 @@
         <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1283,9 +1217,6 @@
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1294,9 +1225,6 @@
         <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1305,9 +1233,6 @@
         <v>30</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1327,7 +1252,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>92</v>
@@ -1338,7 +1263,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>93</v>
@@ -1349,7 +1274,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>94</v>
@@ -1360,7 +1285,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>95</v>
@@ -1371,7 +1296,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>99</v>
@@ -1382,7 +1307,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>100</v>
@@ -1393,7 +1318,7 @@
         <v>41</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>103</v>
@@ -1404,7 +1329,7 @@
         <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>104</v>
@@ -1415,7 +1340,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>107</v>
@@ -1426,7 +1351,7 @@
         <v>47</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>109</v>
@@ -1437,7 +1362,7 @@
         <v>48</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>110</v>
@@ -1448,7 +1373,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>113</v>
@@ -1459,7 +1384,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>114</v>
@@ -1470,7 +1395,7 @@
         <v>55</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>117</v>
@@ -1481,7 +1406,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>118</v>
@@ -1497,9 +1422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K11" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:L11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Requests/Production Requests.xlsx
+++ b/Requests/Production Requests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="37480" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="19240" yWindow="0" windowWidth="19160" windowHeight="24000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GET" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="143">
   <si>
     <t>Test Name</t>
   </si>
@@ -643,7 +643,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="34">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -671,6 +671,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -694,7 +698,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="34">
+  <cellStyles count="38">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -722,12 +726,16 @@
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1003,413 +1011,459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="135.6640625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="135.6640625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="61.5" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="149" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E24" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="148" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:L11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
